--- a/SAGER/presentation-app/consultarhistoricotaxaspresentation.app/server/templates/templatememoria_teip.xlsx
+++ b/SAGER/presentation-app/consultarhistoricotaxaspresentation.app/server/templates/templatememoria_teip.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>uge_id</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Protocolo:</t>
+  </si>
+  <si>
+    <t>duracao</t>
+  </si>
+  <si>
+    <t>tpparametro</t>
   </si>
 </sst>
 </file>
@@ -209,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -219,12 +225,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5032"/>
+  <dimension ref="A1:R5032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5009" workbookViewId="0">
-      <selection activeCell="H394" sqref="H394"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,59 +631,59 @@
     <col min="9" max="9" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="J8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -722,27 +729,33 @@
       <c r="P9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -29750,14 +29763,14 @@
       <c r="D5031" s="7"/>
     </row>
     <row r="5032" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5032" s="10"/>
-      <c r="B5032" s="11"/>
-      <c r="C5032" s="11"/>
-      <c r="D5032" s="11"/>
-      <c r="E5032" s="12"/>
-      <c r="F5032" s="12"/>
-      <c r="G5032" s="12"/>
-      <c r="H5032" s="12"/>
+      <c r="A5032" s="9"/>
+      <c r="B5032" s="10"/>
+      <c r="C5032" s="10"/>
+      <c r="D5032" s="10"/>
+      <c r="E5032" s="11"/>
+      <c r="F5032" s="11"/>
+      <c r="G5032" s="11"/>
+      <c r="H5032" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SAGER/presentation-app/consultarhistoricotaxaspresentation.app/server/templates/templatememoria_teip.xlsx
+++ b/SAGER/presentation-app/consultarhistoricotaxaspresentation.app/server/templates/templatememoria_teip.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>uge_id</t>
   </si>
@@ -87,9 +87,6 @@
     <t>HP</t>
   </si>
   <si>
-    <t>desger_id</t>
-  </si>
-  <si>
     <t>Protocolo:</t>
   </si>
   <si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>tpparametro</t>
+  </si>
+  <si>
+    <t>numons</t>
+  </si>
+  <si>
+    <t>versao</t>
   </si>
 </sst>
 </file>
@@ -228,10 +231,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -612,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5032"/>
+  <dimension ref="A1:S5032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,59 +634,59 @@
     <col min="9" max="9" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="J8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -709,7 +712,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>0</v>
@@ -729,33 +732,36 @@
       <c r="P9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="13" t="s">
-        <v>25</v>
+      <c r="S9" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
